--- a/biology/Zoologie/Conure_de_Molina/Conure_de_Molina.xlsx
+++ b/biology/Zoologie/Conure_de_Molina/Conure_de_Molina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura molinae
 La Conure de Molina ou Conure à joues vertes (Pyrrhura molinae) est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 26 cm et pèse à peu près 80 grammes. Son plumage d'origine présente une prédominance verte, en particulier les joues d'où un des noms attribués à cette espèce. Sa poitrine arbore des écailles caractéristiques de couleur brun foncé et doré clair. Le front, la calotte, la nuque, le bec et les pattes sont noirs. Les rémiges sont bleues et la queue rouge. Les cercles oculaires sont blancs et les iris marron.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Amérique du Sud : Bolivie, Brésil et Argentine.
 </t>
@@ -574,7 +590,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en moyenne 25 à 30 ans.
 </t>
